--- a/biology/Médecine/1668_en_santé_et_médecine/1668_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1668_en_santé_et_médecine/1668_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1668_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1668_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1668 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1668_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1668_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1668_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1668_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +551,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Moyse Charas (1619-1698) publie Histoire naturelle des animaux, des plantes et des minéraux qui entrent dans la composition de la thériaque d'Andromachus[1].
-François Mauriceau (1637-1709) publie Les Maladies des Femmes grosses et accouchées. Avec la bonne et véritable Méthode de les bien aider en leurs accouchemens naturels, &amp; les moyens de remédier à tous ceux qui sont contre nature, &amp; aux indispositions des enfans nouveau-nés…, Paris, Henault, d'Houry, de Ninville, Coignard. Son ouvrage, traduit en six langues (allemand, anglais, flamand, hollandais, italien, latin), est le texte fondateur de l'obstétrique scientifique[2]. Il existe 7 éditions françaises de 1668 à 1740.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Moyse Charas (1619-1698) publie Histoire naturelle des animaux, des plantes et des minéraux qui entrent dans la composition de la thériaque d'Andromachus.
+François Mauriceau (1637-1709) publie Les Maladies des Femmes grosses et accouchées. Avec la bonne et véritable Méthode de les bien aider en leurs accouchemens naturels, &amp; les moyens de remédier à tous ceux qui sont contre nature, &amp; aux indispositions des enfans nouveau-nés…, Paris, Henault, d'Houry, de Ninville, Coignard. Son ouvrage, traduit en six langues (allemand, anglais, flamand, hollandais, italien, latin), est le texte fondateur de l'obstétrique scientifique. Il existe 7 éditions françaises de 1668 à 1740.
 Traité des maladies des femmes grosses et de celles qui sont nouvellement accouchées, 1682.
 Traité des maladies des femmes grosses et de celles qui sont accouchées, 7e  éd., t. 1, 1740.
 (en) The Diseases of Women with Child, and in Child-bed, trad. Hugh Chamberlen, 5e  éd., 1716.</t>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1668_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1668_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,9 +587,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8 septembre : Giorgio Baglivi (mort en 1706), médecin italien[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>8 septembre : Giorgio Baglivi (mort en 1706), médecin italien.</t>
         </is>
       </c>
     </row>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1668_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1668_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,9 +619,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Johann Zwelfer (né en 1618), médecin et chimiste allemand[4],[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Johann Zwelfer (né en 1618), médecin et chimiste allemand,.</t>
         </is>
       </c>
     </row>
